--- a/Commands/commandlist.xlsx
+++ b/Commands/commandlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Case\VoiceBot\Commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63D1B2E-1414-4A4E-8939-FE05D57819D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1F58D5-4F6A-4996-856E-CA74366A74FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22140" yWindow="3495" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23865" yWindow="2025" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>指令關鍵字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,14 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>台中天氣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以上為台中天氣～</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>維基百科</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,68 +94,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>食譜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你要煮給我吃嗎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>學校公告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>聽音樂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做報告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我做好了 趕快去看看吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Web</t>
   </si>
   <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Reporter</t>
-  </si>
-  <si>
     <t>Web.openWithURL()</t>
   </si>
   <si>
     <t>Web.SearchilearnBroadcast()</t>
   </si>
   <si>
+    <t>Web.SearchWiki()</t>
+  </si>
+  <si>
+    <t>Web.constellationLuck()</t>
+  </si>
+  <si>
+    <t>Web.MovieRecommand()</t>
+  </si>
+  <si>
     <t>Web.SearchingWeather()</t>
-  </si>
-  <si>
-    <t>Web.SearchWiki()</t>
-  </si>
-  <si>
-    <t>Web.constellationLuck()</t>
-  </si>
-  <si>
-    <t>Web.MovieRecommand()</t>
-  </si>
-  <si>
-    <t>Food.recommendation()</t>
-  </si>
-  <si>
-    <t>Web.ListenMusic()</t>
-  </si>
-  <si>
-    <t>Reporter.MakeReport()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻譯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是我翻譯的結果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web.TransEnglish()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassValue/翻譯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web.CurrencyRate()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是目前依造台銀官網告示的外幣匯率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢天氣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上為查詢的天氣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是我覺得不錯的電影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -489,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -505,9 +503,8 @@
     <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.125" customWidth="1"/>
     <col min="9" max="9" width="24.875" customWidth="1"/>
-    <col min="10" max="10" width="37.875" customWidth="1"/>
-    <col min="11" max="11" width="48" customWidth="1"/>
-    <col min="12" max="12" width="37" customWidth="1"/>
+    <col min="11" max="11" width="39.5" customWidth="1"/>
+    <col min="12" max="12" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -521,31 +518,31 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -553,37 +550,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -591,37 +588,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -638,32 +635,38 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Commands/commandlist.xlsx
+++ b/Commands/commandlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Case\VoiceBot\Commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1F58D5-4F6A-4996-856E-CA74366A74FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86791836-E726-4B1D-BA8D-972CC15B2FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23865" yWindow="2025" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>指令關鍵字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,38 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我已經幫你打開網頁了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>google</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>網頁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已經幫你查詢完畢了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>維基百科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以上為搜尋結果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星座真是有趣 我也好想知道我的愛情運喔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推薦電影</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,23 +62,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>學校公告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Web</t>
-  </si>
-  <si>
-    <t>Web.openWithURL()</t>
-  </si>
-  <si>
-    <t>Web.SearchilearnBroadcast()</t>
-  </si>
-  <si>
-    <t>Web.SearchWiki()</t>
-  </si>
-  <si>
-    <t>Web.constellationLuck()</t>
   </si>
   <si>
     <t>Web.MovieRecommand()</t>
@@ -487,181 +439,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.125" customWidth="1"/>
-    <col min="3" max="3" width="30.625" customWidth="1"/>
-    <col min="4" max="4" width="29.625" customWidth="1"/>
-    <col min="5" max="5" width="22.875" customWidth="1"/>
-    <col min="6" max="6" width="21.375" customWidth="1"/>
-    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="24.875" customWidth="1"/>
-    <col min="11" max="11" width="39.5" customWidth="1"/>
-    <col min="12" max="12" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="6" max="6" width="39.5" customWidth="1"/>
+    <col min="7" max="7" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
         <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J5" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
